--- a/Logs/Logi2.xlsx
+++ b/Logs/Logi2.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\ISA2\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="8_{08E60F32-BA15-4AB5-88FB-2360A23D69AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="42" xr10:uidLastSave="{7AC59EB8-F1DD-4A6A-B8C2-03302E8205DD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2BF857-1D29-4114-9FD6-E76DA54C7FF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="2490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="2490" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 2" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
+    <sheet name="Nädal 3" sheetId="4" r:id="rId2"/>
+    <sheet name="Nädal 4" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>Assignment 2, eat, rest</t>
+  </si>
+  <si>
+    <t>Work check</t>
+  </si>
+  <si>
+    <t>Assignment 4</t>
   </si>
 </sst>
 </file>
@@ -484,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -589,6 +595,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,7 +912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J18" sqref="A15:J18"/>
     </sheetView>
   </sheetViews>
@@ -1268,13 +1275,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3065BC2E-9156-4ADE-9E9A-E839493D57BA}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K19"/>
+      <selection activeCell="G4" sqref="G4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -1317,7 +1328,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="43">
-        <v>42773</v>
+        <v>42777</v>
       </c>
       <c r="H4" s="43"/>
       <c r="I4" s="43"/>
@@ -1371,18 +1382,18 @@
         <v>1</v>
       </c>
       <c r="B7" s="18">
-        <v>42764</v>
+        <v>43507</v>
       </c>
       <c r="C7" s="19">
-        <v>0.375</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D7" s="19">
-        <v>0.40972222222222227</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="21">
         <f>(D7-C7)*24*60 - E7</f>
-        <v>50.000000000000064</v>
+        <v>90</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>12</v>
@@ -1399,21 +1410,21 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8">
-        <v>0.52777777777777779</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D8" s="8">
-        <v>0.5541666666666667</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="5">
-        <f t="shared" ref="F8:F18" si="0">(D8-C8)*24*60 - E8</f>
-        <v>38.000000000000028</v>
+        <f t="shared" ref="F8:F15" si="0">(D8-C8)*24*60 - E8</f>
+        <v>119.99999999999989</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
@@ -1422,115 +1433,106 @@
       <c r="A9" s="9">
         <v>3</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="7">
+        <v>43510</v>
+      </c>
       <c r="C9" s="8">
-        <v>0.61458333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="D9" s="8">
-        <v>0.66319444444444442</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E9" s="6">
         <v>10</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>59.999999999999915</v>
+        <v>184.99999999999994</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
         <v>4</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="8">
-        <v>0.76736111111111116</v>
+        <v>0.625</v>
       </c>
       <c r="D10" s="8">
-        <v>0.82291666666666663</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>79.999999999999872</v>
+        <v>165.00000000000006</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="10">
-        <v>2</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>5</v>
       </c>
       <c r="B11" s="7">
-        <v>42765</v>
+        <v>43511</v>
       </c>
       <c r="C11" s="8">
-        <v>0.46249999999999997</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D11" s="8">
-        <v>0.5131944444444444</v>
-      </c>
-      <c r="E11" s="6">
-        <f>6+5</f>
-        <v>11</v>
-      </c>
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E11" s="6"/>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>61.999999999999986</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>14</v>
+        <v>14.999999999999947</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>12</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="10">
-        <v>1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>6</v>
       </c>
       <c r="B12" s="7">
-        <v>42766</v>
+        <v>43512</v>
       </c>
       <c r="C12" s="8">
-        <v>0.375</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="D12" s="8">
-        <v>0.39583333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>29.999999999999972</v>
+        <v>104.99999999999994</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
@@ -1541,83 +1543,67 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="8">
-        <v>0.55208333333333337</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="D13" s="8">
-        <v>0.60833333333333328</v>
-      </c>
-      <c r="E13" s="6">
-        <f>3+8</f>
-        <v>11</v>
-      </c>
+        <v>0.69166666666666676</v>
+      </c>
+      <c r="E13" s="6"/>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>69.999999999999872</v>
+        <v>81.000000000000199</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="10">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>8</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="7">
+        <v>43513</v>
+      </c>
       <c r="C14" s="8">
-        <v>0.6791666666666667</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0.71597222222222223</v>
-      </c>
-      <c r="E14" s="6">
-        <v>25</v>
-      </c>
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="D14" s="50">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="E14" s="6"/>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>27.999999999999972</v>
+        <v>92</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
-        <v>9</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="9"/>
       <c r="B15" s="7">
-        <v>42767</v>
+        <v>42783</v>
       </c>
       <c r="C15" s="8">
-        <v>0.27916666666666667</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="D15" s="8">
-        <v>0.37777777777777777</v>
-      </c>
-      <c r="E15" s="6">
-        <f>10+6+12</f>
-        <v>28</v>
-      </c>
+        <v>0.9194444444444444</v>
+      </c>
+      <c r="E15" s="6"/>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>113.99999999999997</v>
+        <v>224</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>14</v>
@@ -1632,105 +1618,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
-        <v>10</v>
-      </c>
-      <c r="B16" s="7">
-        <v>42768</v>
-      </c>
-      <c r="C16" s="8">
-        <v>0.375</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0.40972222222222227</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5">
-        <f t="shared" si="0"/>
-        <v>50.000000000000064</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="10"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
-        <v>11</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8">
-        <v>0.52638888888888891</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0.55277777777777781</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5">
-        <f t="shared" si="0"/>
-        <v>38.000000000000028</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="10"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="23">
-        <v>12</v>
-      </c>
-      <c r="B18" s="24">
-        <v>42769</v>
-      </c>
-      <c r="C18" s="25">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="D18" s="25">
-        <v>0.4993055555555555</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="11">
-        <f t="shared" si="0"/>
-        <v>163.99999999999989</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="27"/>
-    </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="33" t="s">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="30">
-        <f>SUM(F7:F18)</f>
-        <v>783.99999999999977</v>
-      </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="30">
+        <f>SUM(F7:F15)</f>
+        <v>1077</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A16:E16"/>
     <mergeCell ref="A2:J3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:E4"/>
@@ -1746,11 +1653,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28F063E-B313-47A9-96BC-9B49B4E58ED9}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -1793,7 +1703,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="43">
-        <v>42773</v>
+        <v>43516</v>
       </c>
       <c r="H4" s="43"/>
       <c r="I4" s="43"/>
@@ -1847,18 +1757,18 @@
         <v>1</v>
       </c>
       <c r="B7" s="18">
-        <v>42764</v>
+        <v>43514</v>
       </c>
       <c r="C7" s="19">
-        <v>0.375</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D7" s="19">
-        <v>0.40972222222222227</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="21">
         <f>(D7-C7)*24*60 - E7</f>
-        <v>50.000000000000064</v>
+        <v>90</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>12</v>
@@ -1873,23 +1783,25 @@
       <c r="A8" s="9">
         <v>2</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="7">
+        <v>43516</v>
+      </c>
       <c r="C8" s="8">
-        <v>0.52777777777777779</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D8" s="8">
-        <v>0.5541666666666667</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="5">
         <f t="shared" ref="F8:F18" si="0">(D8-C8)*24*60 - E8</f>
-        <v>38.000000000000028</v>
+        <v>240</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
@@ -2197,7 +2109,7 @@
       <c r="E19" s="35"/>
       <c r="F19" s="30">
         <f>SUM(F7:F18)</f>
-        <v>783.99999999999977</v>
+        <v>1025.9999999999995</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>

--- a/Logs/Logi2.xlsx
+++ b/Logs/Logi2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\ISA2\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2BF857-1D29-4114-9FD6-E76DA54C7FF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEBAC5C-183E-4093-BB8E-BA8F4AA93995}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="2490" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="31">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -79,19 +79,10 @@
     <t>Prog.</t>
   </si>
   <si>
-    <t>Assignment 1</t>
-  </si>
-  <si>
     <t>Text</t>
   </si>
   <si>
-    <t>Read text - Ch 18.2</t>
-  </si>
-  <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>Assignment 1, break, chat</t>
   </si>
   <si>
     <t>Assignment 2, break, phone</t>
@@ -538,6 +529,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -595,7 +587,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -931,68 +922,68 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="41"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="44">
         <v>42773</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="47"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
@@ -1040,7 +1031,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="22"/>
@@ -1069,7 +1060,7 @@
         <v>14</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
@@ -1093,10 +1084,10 @@
         <v>90</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
@@ -1123,7 +1114,7 @@
         <v>14</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
@@ -1153,7 +1144,7 @@
         <v>14</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
@@ -1180,7 +1171,7 @@
         <v>14</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
@@ -1236,19 +1227,19 @@
         <v>14</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
+      <c r="A15" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
       <c r="F15" s="30">
         <f>SUM(F7:F14)</f>
         <v>954</v>
@@ -1289,68 +1280,68 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="41"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="44">
         <v>42777</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="47"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
     </row>
     <row r="6" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
@@ -1424,7 +1415,7 @@
         <v>14</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
@@ -1453,7 +1444,7 @@
         <v>14</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
@@ -1478,7 +1469,7 @@
         <v>14</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
@@ -1505,7 +1496,7 @@
         <v>12</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
@@ -1532,7 +1523,7 @@
         <v>12</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
@@ -1557,7 +1548,7 @@
         <v>14</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
@@ -1572,7 +1563,7 @@
       <c r="C14" s="8">
         <v>0.5541666666666667</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="31">
         <v>0.61805555555555558</v>
       </c>
       <c r="E14" s="6"/>
@@ -1581,10 +1572,10 @@
         <v>92</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
@@ -1609,23 +1600,23 @@
         <v>14</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J15" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
+      <c r="A16" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="30">
         <f>SUM(F7:F15)</f>
         <v>1077</v>
@@ -1654,7 +1645,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:J4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1664,68 +1655,68 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="41"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="44">
         <v>43516</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="47"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
     </row>
     <row r="6" spans="1:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
@@ -1801,7 +1792,7 @@
         <v>14</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
@@ -1810,25 +1801,27 @@
       <c r="A9" s="9">
         <v>3</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="7">
+        <v>43517</v>
+      </c>
       <c r="C9" s="8">
-        <v>0.61458333333333337</v>
+        <v>0.47569444444444442</v>
       </c>
       <c r="D9" s="8">
-        <v>0.66319444444444442</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E9" s="6">
         <v>10</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>59.999999999999915</v>
+        <v>145.00000000000009</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
@@ -1839,62 +1832,51 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="8">
-        <v>0.76736111111111116</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="D10" s="8">
-        <v>0.82291666666666663</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>79.999999999999872</v>
+        <v>60.000000000000107</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="10">
-        <v>2</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>5</v>
       </c>
       <c r="B11" s="7">
-        <v>42765</v>
+        <v>43518</v>
       </c>
       <c r="C11" s="8">
-        <v>0.46249999999999997</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D11" s="8">
         <v>0.5131944444444444</v>
       </c>
-      <c r="E11" s="6">
-        <f>6+5</f>
-        <v>11</v>
-      </c>
+      <c r="E11" s="6"/>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>61.999999999999986</v>
+        <v>259</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="10">
-        <v>1</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
@@ -1946,10 +1928,10 @@
         <v>14</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J13" s="10">
         <v>1</v>
@@ -1974,13 +1956,13 @@
         <v>27.999999999999972</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="J14" s="10">
         <v>1</v>
@@ -2011,10 +1993,10 @@
         <v>14</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J15" s="10">
         <v>1</v>
@@ -2064,10 +2046,10 @@
         <v>38.000000000000028</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="10"/>
@@ -2091,25 +2073,25 @@
         <v>163.99999999999989</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
+      <c r="A19" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="30">
         <f>SUM(F7:F18)</f>
-        <v>1025.9999999999995</v>
+        <v>1288</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
